--- a/Code/Results/Cases/Case_8_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031979686683304</v>
+        <v>1.024211818565548</v>
       </c>
       <c r="D2">
-        <v>1.046762969022495</v>
+        <v>1.040057349130517</v>
       </c>
       <c r="E2">
-        <v>1.033341731127845</v>
+        <v>1.026940193812489</v>
       </c>
       <c r="F2">
-        <v>1.047603200346462</v>
+        <v>1.042249283428274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062251729079084</v>
+        <v>1.057768944319113</v>
       </c>
       <c r="J2">
-        <v>1.053244222301848</v>
+        <v>1.045691711314822</v>
       </c>
       <c r="K2">
-        <v>1.057607109256906</v>
+        <v>1.050985464521843</v>
       </c>
       <c r="L2">
-        <v>1.044355312113109</v>
+        <v>1.03803654619876</v>
       </c>
       <c r="M2">
-        <v>1.058436912671021</v>
+        <v>1.053149800756898</v>
       </c>
       <c r="N2">
-        <v>1.054739949906317</v>
+        <v>1.035215680389547</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054821147783005</v>
+        <v>1.050636822618782</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051803346223442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047130045909336</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025079089571056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036636189335956</v>
+        <v>1.028192596524461</v>
       </c>
       <c r="D3">
-        <v>1.049999604770016</v>
+        <v>1.042704971831841</v>
       </c>
       <c r="E3">
-        <v>1.037184115830172</v>
+        <v>1.030147657780712</v>
       </c>
       <c r="F3">
-        <v>1.050844566510022</v>
+        <v>1.045024186845787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063831918498286</v>
+        <v>1.058948620258751</v>
       </c>
       <c r="J3">
-        <v>1.05617560575681</v>
+        <v>1.047943133168099</v>
       </c>
       <c r="K3">
-        <v>1.060030335455785</v>
+        <v>1.052819106336818</v>
       </c>
       <c r="L3">
-        <v>1.047362338064592</v>
+        <v>1.040408794955977</v>
       </c>
       <c r="M3">
-        <v>1.060865728492928</v>
+        <v>1.05511164857025</v>
       </c>
       <c r="N3">
-        <v>1.05767549626202</v>
+        <v>1.036477914165299</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056743353013084</v>
+        <v>1.052189470577371</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.053514103201062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048423652057292</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.0255147984682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039588585473109</v>
+        <v>1.030721691632242</v>
       </c>
       <c r="D4">
-        <v>1.052055524157247</v>
+        <v>1.044390791594102</v>
       </c>
       <c r="E4">
-        <v>1.039624617980651</v>
+        <v>1.032190524448692</v>
       </c>
       <c r="F4">
-        <v>1.052907402560067</v>
+        <v>1.046794342511744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064824101210551</v>
+        <v>1.059688672400898</v>
       </c>
       <c r="J4">
-        <v>1.058031100301334</v>
+        <v>1.049370894069118</v>
       </c>
       <c r="K4">
-        <v>1.061563797899434</v>
+        <v>1.053981427145335</v>
       </c>
       <c r="L4">
-        <v>1.049267220644508</v>
+        <v>1.041915362075645</v>
       </c>
       <c r="M4">
-        <v>1.062406613031945</v>
+        <v>1.056358991450506</v>
       </c>
       <c r="N4">
-        <v>1.059533625821625</v>
+        <v>1.037278365665878</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057962832152143</v>
+        <v>1.053176642513224</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.054599233534896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049246455980205</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025788512670369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040822887649308</v>
+        <v>1.031779099291214</v>
       </c>
       <c r="D5">
-        <v>1.052918305400548</v>
+        <v>1.045098862043416</v>
       </c>
       <c r="E5">
-        <v>1.040647834376259</v>
+        <v>1.033047188354521</v>
       </c>
       <c r="F5">
-        <v>1.053772231103567</v>
+        <v>1.047536872598269</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.06523871832441</v>
+        <v>1.05999774796194</v>
       </c>
       <c r="J5">
-        <v>1.05880853181022</v>
+        <v>1.049969251120153</v>
       </c>
       <c r="K5">
-        <v>1.062207741635687</v>
+        <v>1.0544700902218</v>
       </c>
       <c r="L5">
-        <v>1.050066292627413</v>
+        <v>1.042547451430516</v>
       </c>
       <c r="M5">
-        <v>1.06305282493935</v>
+        <v>1.056882438895464</v>
       </c>
       <c r="N5">
-        <v>1.060312161372427</v>
+        <v>1.037613823622275</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.058474253372464</v>
+        <v>1.053590908835327</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.055061567721971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049599745811847</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025904465448294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041038010531</v>
+        <v>1.031962133511746</v>
       </c>
       <c r="D6">
-        <v>1.053071641776627</v>
+        <v>1.045224361525704</v>
       </c>
       <c r="E6">
-        <v>1.040828569212026</v>
+        <v>1.033197193447553</v>
       </c>
       <c r="F6">
-        <v>1.053923814419343</v>
+        <v>1.047666401227497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.065313506357667</v>
+        <v>1.060053500008937</v>
       </c>
       <c r="J6">
-        <v>1.058947005564499</v>
+        <v>1.050075303861889</v>
       </c>
       <c r="K6">
-        <v>1.062324292181573</v>
+        <v>1.054558719165415</v>
       </c>
       <c r="L6">
-        <v>1.050209355288265</v>
+        <v>1.042659732450012</v>
       </c>
       <c r="M6">
-        <v>1.063167681196604</v>
+        <v>1.056975171679087</v>
       </c>
       <c r="N6">
-        <v>1.06045083177532</v>
+        <v>1.037673280067621</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.058565152199241</v>
+        <v>1.053664299310685</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.055152545828981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049671892958448</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025927254297896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039628709318745</v>
+        <v>1.030785821425039</v>
       </c>
       <c r="D7">
-        <v>1.052091412872787</v>
+        <v>1.044445194886527</v>
       </c>
       <c r="E7">
-        <v>1.039664298191146</v>
+        <v>1.032255220916975</v>
       </c>
       <c r="F7">
-        <v>1.052937510358314</v>
+        <v>1.046839813535553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064844786823255</v>
+        <v>1.059722449239266</v>
       </c>
       <c r="J7">
-        <v>1.058064559161227</v>
+        <v>1.04942769678729</v>
       </c>
       <c r="K7">
-        <v>1.061596500114101</v>
+        <v>1.054032409045922</v>
       </c>
       <c r="L7">
-        <v>1.049303616895941</v>
+        <v>1.041976460414947</v>
       </c>
       <c r="M7">
-        <v>1.062433599507883</v>
+        <v>1.056401149284627</v>
       </c>
       <c r="N7">
-        <v>1.059567132196937</v>
+        <v>1.037361551141737</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057984189636741</v>
+        <v>1.053210007038092</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.054642073474601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049304313524184</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02581290367815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033596660076755</v>
+        <v>1.025693986508423</v>
       </c>
       <c r="D8">
-        <v>1.047896021291127</v>
+        <v>1.041064757123977</v>
       </c>
       <c r="E8">
-        <v>1.03468371879944</v>
+        <v>1.028166683068481</v>
       </c>
       <c r="F8">
-        <v>1.048729683816251</v>
+        <v>1.043278599141319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062811489120493</v>
+        <v>1.058244955268145</v>
       </c>
       <c r="J8">
-        <v>1.054273237761933</v>
+        <v>1.046582236413099</v>
       </c>
       <c r="K8">
-        <v>1.058464060115676</v>
+        <v>1.051715791042502</v>
       </c>
       <c r="L8">
-        <v>1.045413510805849</v>
+        <v>1.03897817069199</v>
       </c>
       <c r="M8">
-        <v>1.059287686100114</v>
+        <v>1.053902588479947</v>
       </c>
       <c r="N8">
-        <v>1.055770426686386</v>
+        <v>1.035870708479735</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055494464574422</v>
+        <v>1.051232595165154</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.052431755804637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047671290653409</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025283633829777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022439094688866</v>
+        <v>1.016215827120933</v>
       </c>
       <c r="D9">
-        <v>1.04015524864533</v>
+        <v>1.034778166840935</v>
       </c>
       <c r="E9">
-        <v>1.025496007172639</v>
+        <v>1.02056224630423</v>
       </c>
       <c r="F9">
-        <v>1.041006927261708</v>
+        <v>1.03671084467297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058963086984834</v>
+        <v>1.055382508203617</v>
       </c>
       <c r="J9">
-        <v>1.047223615619467</v>
+        <v>1.041208676835625</v>
       </c>
       <c r="K9">
-        <v>1.052628777827105</v>
+        <v>1.047331112425369</v>
       </c>
       <c r="L9">
-        <v>1.038188542640709</v>
+        <v>1.033330297382411</v>
       </c>
       <c r="M9">
-        <v>1.053467973167377</v>
+        <v>1.049235125210803</v>
       </c>
       <c r="N9">
-        <v>1.048710793271875</v>
+        <v>1.032877161006972</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050888631229531</v>
+        <v>1.047538655731955</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048302823334287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044567694625726</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024228665867951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014770417379961</v>
+        <v>1.009874702310508</v>
       </c>
       <c r="D10">
-        <v>1.034895535275163</v>
+        <v>1.03064904798344</v>
       </c>
       <c r="E10">
-        <v>1.019245419989499</v>
+        <v>1.015574419108848</v>
       </c>
       <c r="F10">
-        <v>1.035824636041294</v>
+        <v>1.032433154820695</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056304825445494</v>
+        <v>1.053489881752321</v>
       </c>
       <c r="J10">
-        <v>1.042410023529881</v>
+        <v>1.037701940734424</v>
       </c>
       <c r="K10">
-        <v>1.048662082687263</v>
+        <v>1.044486129295707</v>
       </c>
       <c r="L10">
-        <v>1.033275674402731</v>
+        <v>1.029668053362585</v>
       </c>
       <c r="M10">
-        <v>1.049575850351652</v>
+        <v>1.046240511206263</v>
       </c>
       <c r="N10">
-        <v>1.043890365329394</v>
+        <v>1.03114128341653</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047859173652518</v>
+        <v>1.045219659605275</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045514760526181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042574456585533</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023593502355508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012405513695311</v>
+        <v>1.007949982274608</v>
       </c>
       <c r="D11">
-        <v>1.033554675023239</v>
+        <v>1.029674092814816</v>
       </c>
       <c r="E11">
-        <v>1.017618067392683</v>
+        <v>1.014317059914521</v>
       </c>
       <c r="F11">
-        <v>1.034871448102437</v>
+        <v>1.031779638687621</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055742921540807</v>
+        <v>1.053179387472476</v>
       </c>
       <c r="J11">
-        <v>1.04127116277468</v>
+        <v>1.036995732177362</v>
       </c>
       <c r="K11">
-        <v>1.047870378113494</v>
+        <v>1.044057287246569</v>
       </c>
       <c r="L11">
-        <v>1.032215209122026</v>
+        <v>1.028973935538111</v>
       </c>
       <c r="M11">
-        <v>1.049164398538657</v>
+        <v>1.046126131777805</v>
       </c>
       <c r="N11">
-        <v>1.042749887261292</v>
+        <v>1.031184607118239</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047965043401612</v>
+        <v>1.045561812333258</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04498741059508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042306954225343</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023728467938776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011877883614114</v>
+        <v>1.007440122707634</v>
       </c>
       <c r="D12">
-        <v>1.033390602341707</v>
+        <v>1.02952197190389</v>
       </c>
       <c r="E12">
-        <v>1.017409519082496</v>
+        <v>1.014072000556667</v>
       </c>
       <c r="F12">
-        <v>1.034982578898424</v>
+        <v>1.031904238849503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05574593034547</v>
+        <v>1.05319328164036</v>
       </c>
       <c r="J12">
-        <v>1.041187920392361</v>
+        <v>1.036932907179835</v>
       </c>
       <c r="K12">
-        <v>1.04790488148909</v>
+        <v>1.04410462166598</v>
       </c>
       <c r="L12">
-        <v>1.032210611838426</v>
+        <v>1.028934479422981</v>
       </c>
       <c r="M12">
-        <v>1.049468915234683</v>
+        <v>1.046444707979249</v>
       </c>
       <c r="N12">
-        <v>1.042666526665242</v>
+        <v>1.031340265225719</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048529033431574</v>
+        <v>1.0461377186743</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045011804991705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042340419891199</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023880088977486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012762785206213</v>
+        <v>1.007992635993634</v>
       </c>
       <c r="D13">
-        <v>1.034154792943833</v>
+        <v>1.030008081343432</v>
       </c>
       <c r="E13">
-        <v>1.018311959948916</v>
+        <v>1.014597513361347</v>
       </c>
       <c r="F13">
-        <v>1.035956937703264</v>
+        <v>1.03265735341809</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056209408562218</v>
+        <v>1.053469905910839</v>
       </c>
       <c r="J13">
-        <v>1.041945969647243</v>
+        <v>1.037371144287252</v>
       </c>
       <c r="K13">
-        <v>1.048613705858076</v>
+        <v>1.044539920777193</v>
       </c>
       <c r="L13">
-        <v>1.033053658910986</v>
+        <v>1.029407178187568</v>
       </c>
       <c r="M13">
-        <v>1.050384392669761</v>
+        <v>1.047142513632112</v>
       </c>
       <c r="N13">
-        <v>1.043425652437015</v>
+        <v>1.031543652861533</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049527038079494</v>
+        <v>1.046964238874266</v>
       </c>
       <c r="Q13">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045510495933016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042645471437111</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024066529356125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014016559582405</v>
+        <v>1.008870581400662</v>
       </c>
       <c r="D14">
-        <v>1.0351059564482</v>
+        <v>1.030646951197269</v>
       </c>
       <c r="E14">
-        <v>1.019440588209975</v>
+        <v>1.015327458925881</v>
       </c>
       <c r="F14">
-        <v>1.037025331454114</v>
+        <v>1.033475578824583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056739266281486</v>
+        <v>1.053788228829033</v>
       </c>
       <c r="J14">
-        <v>1.042852477568762</v>
+        <v>1.037914067776689</v>
       </c>
       <c r="K14">
-        <v>1.049411004713473</v>
+        <v>1.045029406383295</v>
       </c>
       <c r="L14">
-        <v>1.034021466375984</v>
+        <v>1.029982594748072</v>
       </c>
       <c r="M14">
-        <v>1.051297324899467</v>
+        <v>1.047808829689675</v>
       </c>
       <c r="N14">
-        <v>1.04433344770376</v>
+        <v>1.031714058593352</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050420611267975</v>
+        <v>1.047663222145721</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046075602468479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04299308727594</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024219987848286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014643740049639</v>
+        <v>1.009332904086004</v>
       </c>
       <c r="D15">
-        <v>1.035555967230876</v>
+        <v>1.030960643242227</v>
       </c>
       <c r="E15">
-        <v>1.019973280619119</v>
+        <v>1.015693341472943</v>
       </c>
       <c r="F15">
-        <v>1.037495885878345</v>
+        <v>1.033836464429899</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056978893059079</v>
+        <v>1.053934991280314</v>
       </c>
       <c r="J15">
-        <v>1.043272277293665</v>
+        <v>1.038173739808472</v>
       </c>
       <c r="K15">
-        <v>1.049768737003904</v>
+        <v>1.045252568295412</v>
       </c>
       <c r="L15">
-        <v>1.034458218144559</v>
+        <v>1.030254932522403</v>
       </c>
       <c r="M15">
-        <v>1.051675512050254</v>
+        <v>1.048078746427873</v>
       </c>
       <c r="N15">
-        <v>1.044753843592425</v>
+        <v>1.031780395833257</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050756787108666</v>
+        <v>1.047913892414716</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046334310106416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043157237864849</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024275762021029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017723288946641</v>
+        <v>1.011728852382439</v>
       </c>
       <c r="D16">
-        <v>1.037641922683989</v>
+        <v>1.032481647522662</v>
       </c>
       <c r="E16">
-        <v>1.022438524097143</v>
+        <v>1.017509932622937</v>
       </c>
       <c r="F16">
-        <v>1.039535445938794</v>
+        <v>1.035419950666498</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058033089415411</v>
+        <v>1.054602232110794</v>
       </c>
       <c r="J16">
-        <v>1.045176358821928</v>
+        <v>1.03940940553225</v>
       </c>
       <c r="K16">
-        <v>1.051328465246595</v>
+        <v>1.046253166923797</v>
       </c>
       <c r="L16">
-        <v>1.036378603552213</v>
+        <v>1.031534305366354</v>
       </c>
       <c r="M16">
-        <v>1.053191078747659</v>
+        <v>1.04914294999532</v>
       </c>
       <c r="N16">
-        <v>1.046660629134859</v>
+        <v>1.032073580086401</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051916290463877</v>
+        <v>1.048716545956911</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047440177433782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043868106812811</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024451826334111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019434289800368</v>
+        <v>1.013130917481604</v>
       </c>
       <c r="D17">
-        <v>1.038748711281348</v>
+        <v>1.033330776571306</v>
       </c>
       <c r="E17">
-        <v>1.023746401532107</v>
+        <v>1.018544545623951</v>
       </c>
       <c r="F17">
-        <v>1.0405391081763</v>
+        <v>1.036215288875789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058564198807324</v>
+        <v>1.054956441314266</v>
       </c>
       <c r="J17">
-        <v>1.046165591705477</v>
+        <v>1.040093680783767</v>
       </c>
       <c r="K17">
-        <v>1.052109813583909</v>
+        <v>1.046778589456554</v>
       </c>
       <c r="L17">
-        <v>1.037350498331074</v>
+        <v>1.032235051199323</v>
       </c>
       <c r="M17">
-        <v>1.053871810523071</v>
+        <v>1.049616792274318</v>
       </c>
       <c r="N17">
-        <v>1.047651266842569</v>
+        <v>1.032271744064897</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052326443844313</v>
+        <v>1.048962837507844</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047995149189476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044242395096402</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024510223001377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020085711191141</v>
+        <v>1.013742569882665</v>
       </c>
       <c r="D18">
-        <v>1.039065659671808</v>
+        <v>1.033612392440388</v>
       </c>
       <c r="E18">
-        <v>1.024128536127887</v>
+        <v>1.018926295702204</v>
       </c>
       <c r="F18">
-        <v>1.040673684146028</v>
+        <v>1.036319627973805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058664470872364</v>
+        <v>1.055031574008672</v>
       </c>
       <c r="J18">
-        <v>1.04641080597576</v>
+        <v>1.040296267335971</v>
       </c>
       <c r="K18">
-        <v>1.052242499081693</v>
+        <v>1.046875102916901</v>
       </c>
       <c r="L18">
-        <v>1.037543383308495</v>
+        <v>1.032426142390626</v>
       </c>
       <c r="M18">
-        <v>1.053825422070919</v>
+        <v>1.049539563804743</v>
       </c>
       <c r="N18">
-        <v>1.047896829345243</v>
+        <v>1.032304097500654</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052054412700774</v>
+        <v>1.04866573239354</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048077503630685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044298001640684</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024437814616853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019795993288508</v>
+        <v>1.013628283692663</v>
       </c>
       <c r="D19">
-        <v>1.038687494046306</v>
+        <v>1.033378936122061</v>
       </c>
       <c r="E19">
-        <v>1.023697318833457</v>
+        <v>1.018710278801478</v>
       </c>
       <c r="F19">
-        <v>1.040028900307578</v>
+        <v>1.035788153897131</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058388658330695</v>
+        <v>1.054853098691235</v>
       </c>
       <c r="J19">
-        <v>1.046001058542019</v>
+        <v>1.040054458223939</v>
       </c>
       <c r="K19">
-        <v>1.051809103617031</v>
+        <v>1.046583756670368</v>
       </c>
       <c r="L19">
-        <v>1.03705674978066</v>
+        <v>1.032150824249727</v>
       </c>
       <c r="M19">
-        <v>1.053129655286612</v>
+        <v>1.048955075036318</v>
       </c>
       <c r="N19">
-        <v>1.047486500023148</v>
+        <v>1.032145663549969</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051182328061614</v>
+        <v>1.047880573168084</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047777386193549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044098961480386</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024250831511542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016832961188558</v>
+        <v>1.011462618640406</v>
       </c>
       <c r="D20">
-        <v>1.036330882378348</v>
+        <v>1.031688381206179</v>
       </c>
       <c r="E20">
-        <v>1.020946638447288</v>
+        <v>1.016805955176728</v>
       </c>
       <c r="F20">
-        <v>1.03722508100483</v>
+        <v>1.03351445377716</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057043355258364</v>
+        <v>1.053958941907039</v>
       </c>
       <c r="J20">
-        <v>1.043730074304712</v>
+        <v>1.038558716107103</v>
       </c>
       <c r="K20">
-        <v>1.049763625311478</v>
+        <v>1.045196010521491</v>
       </c>
       <c r="L20">
-        <v>1.034630901755458</v>
+        <v>1.030559591883933</v>
       </c>
       <c r="M20">
-        <v>1.050643498691198</v>
+        <v>1.046992524397235</v>
       </c>
       <c r="N20">
-        <v>1.045212290727737</v>
+        <v>1.03142862936768</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048693664247169</v>
+        <v>1.04580432992179</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046335072218021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043122072214467</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.0237425029661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010850128223439</v>
+        <v>1.00705901417589</v>
       </c>
       <c r="D21">
-        <v>1.03218125719806</v>
+        <v>1.028852746227305</v>
       </c>
       <c r="E21">
-        <v>1.016024057278192</v>
+        <v>1.013467332047203</v>
       </c>
       <c r="F21">
-        <v>1.033074442360058</v>
+        <v>1.030424129977076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054899284999613</v>
+        <v>1.052708182243834</v>
       </c>
       <c r="J21">
-        <v>1.039901111605308</v>
+        <v>1.036264537218141</v>
       </c>
       <c r="K21">
-        <v>1.046577560652392</v>
+        <v>1.043307363740479</v>
       </c>
       <c r="L21">
-        <v>1.030708078018734</v>
+        <v>1.028197975988134</v>
       </c>
       <c r="M21">
-        <v>1.047455180388657</v>
+        <v>1.04485115670956</v>
       </c>
       <c r="N21">
-        <v>1.041377890462113</v>
+        <v>1.030943932334541</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046129960984536</v>
+        <v>1.044069063876906</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.044085664811638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04179028340796</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023411595257876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007033424057198</v>
+        <v>1.004231663733363</v>
       </c>
       <c r="D22">
-        <v>1.029548519407256</v>
+        <v>1.027046147040308</v>
       </c>
       <c r="E22">
-        <v>1.012898601486001</v>
+        <v>1.011338793739815</v>
       </c>
       <c r="F22">
-        <v>1.030475348788011</v>
+        <v>1.028491857065722</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053530568614381</v>
+        <v>1.051898289490131</v>
       </c>
       <c r="J22">
-        <v>1.037467987246034</v>
+        <v>1.034787241792635</v>
       </c>
       <c r="K22">
-        <v>1.044556494070072</v>
+        <v>1.042100203333459</v>
       </c>
       <c r="L22">
-        <v>1.028218793250846</v>
+        <v>1.026688924511527</v>
       </c>
       <c r="M22">
-        <v>1.045466329685042</v>
+        <v>1.043519254714276</v>
       </c>
       <c r="N22">
-        <v>1.038941310787165</v>
+        <v>1.030584037701107</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04455592948349</v>
+        <v>1.043014957172973</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042643381561428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040922121406587</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023206437764257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009039956277167</v>
+        <v>1.005668243324002</v>
       </c>
       <c r="D23">
-        <v>1.030924325113203</v>
+        <v>1.027946841547614</v>
       </c>
       <c r="E23">
-        <v>1.014533134969831</v>
+        <v>1.012394533618889</v>
       </c>
       <c r="F23">
-        <v>1.031838603922504</v>
+        <v>1.029471152159802</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054244375665507</v>
+        <v>1.052290648404647</v>
       </c>
       <c r="J23">
-        <v>1.038739099825106</v>
+        <v>1.035508664634283</v>
       </c>
       <c r="K23">
-        <v>1.045607865484422</v>
+        <v>1.042683798189973</v>
       </c>
       <c r="L23">
-        <v>1.029515807589039</v>
+        <v>1.027417167480927</v>
       </c>
       <c r="M23">
-        <v>1.046505822378347</v>
+        <v>1.044180712412126</v>
       </c>
       <c r="N23">
-        <v>1.040214228491897</v>
+        <v>1.030671083477222</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045378613196879</v>
+        <v>1.043538454584909</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043377205191353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041324258301681</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023281703773501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016792959082937</v>
+        <v>1.011451311743267</v>
       </c>
       <c r="D24">
-        <v>1.036265657365046</v>
+        <v>1.031646231542339</v>
       </c>
       <c r="E24">
-        <v>1.020875690095391</v>
+        <v>1.016771221905274</v>
       </c>
       <c r="F24">
-        <v>1.037132170458813</v>
+        <v>1.033439878968024</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056993848058149</v>
+        <v>1.053925109922092</v>
       </c>
       <c r="J24">
-        <v>1.043659557812037</v>
+        <v>1.038515568734806</v>
       </c>
       <c r="K24">
-        <v>1.049684493957841</v>
+        <v>1.045139497071917</v>
       </c>
       <c r="L24">
-        <v>1.034545861663191</v>
+        <v>1.03051008111264</v>
       </c>
       <c r="M24">
-        <v>1.050537140331083</v>
+        <v>1.04690414354667</v>
       </c>
       <c r="N24">
-        <v>1.045141674093554</v>
+        <v>1.031396596815831</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048569102750179</v>
+        <v>1.045693855512399</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046252098237215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043052338147181</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023704319147785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025425749951102</v>
+        <v>1.018696455291727</v>
       </c>
       <c r="D25">
-        <v>1.042235945635095</v>
+        <v>1.036426464032983</v>
       </c>
       <c r="E25">
-        <v>1.027962756093931</v>
+        <v>1.022543623679782</v>
       </c>
       <c r="F25">
-        <v>1.043069621400458</v>
+        <v>1.038428410324022</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060013291428462</v>
+        <v>1.056139199009012</v>
       </c>
       <c r="J25">
-        <v>1.049126721564586</v>
+        <v>1.042610585666782</v>
       </c>
       <c r="K25">
-        <v>1.054212165878978</v>
+        <v>1.048484448905837</v>
       </c>
       <c r="L25">
-        <v>1.040141958066178</v>
+        <v>1.034801775806036</v>
       </c>
       <c r="M25">
-        <v>1.05503420252824</v>
+        <v>1.05045808856444</v>
       </c>
       <c r="N25">
-        <v>1.050616601845725</v>
+        <v>1.033597954525945</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052128178198454</v>
+        <v>1.048506539264725</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049450478596039</v>
+        <v>1.04541419234821</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024506587560806</v>
       </c>
     </row>
   </sheetData>
